--- a/proveedores_BD.xlsx
+++ b/proveedores_BD.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="15600" windowHeight="7935" tabRatio="1000" firstSheet="14" activeTab="21"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="15600" windowHeight="7935" tabRatio="1000" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Clientes" sheetId="10" r:id="rId1"/>
@@ -1089,12 +1089,6 @@
     <t>ID_Deposito</t>
   </si>
   <si>
-    <t>Local N° 2</t>
-  </si>
-  <si>
-    <t>Local N° 3</t>
-  </si>
-  <si>
     <t>ID_Tipo_Pago</t>
   </si>
   <si>
@@ -1701,7 +1695,13 @@
     <t>80003451-3</t>
   </si>
   <si>
-    <t>Casa Matriz</t>
+    <t>Casa Matriz-Tomas R. Pereira c/ Mcal. Estigarribia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deposito N° 1. Avda. Caballero c/ Carlos A. Lopez </t>
+  </si>
+  <si>
+    <t>Deposito N° 2. Posadas c/ Indep. Nacional</t>
   </si>
 </sst>
 </file>
@@ -2184,22 +2184,22 @@
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" customHeight="1">
       <c r="A1" s="10" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>330</v>
       </c>
       <c r="C1" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>390</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>392</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>339</v>
@@ -2216,25 +2216,25 @@
         <v>100</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F2" s="9">
         <v>101</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="I2" s="13">
         <v>0</v>
@@ -2245,25 +2245,25 @@
         <v>101</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F3" s="9">
         <v>104</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="I3" s="9">
         <v>900000</v>
@@ -2274,25 +2274,25 @@
         <v>102</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F4" s="9">
         <v>103</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="I4" s="13">
         <v>10000000</v>
@@ -2303,25 +2303,25 @@
         <v>103</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F5" s="9">
         <v>103</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="I5" s="13">
         <v>7000000</v>
@@ -2332,25 +2332,25 @@
         <v>104</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F6" s="9">
         <v>103</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="I6" s="13">
         <v>500000</v>
@@ -2361,25 +2361,25 @@
         <v>105</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C7" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>374</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>375</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>376</v>
       </c>
       <c r="F7" s="9">
         <v>103</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="I7" s="9">
         <v>0</v>
@@ -2390,25 +2390,25 @@
         <v>106</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D8" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="F8" s="9">
+        <v>102</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="H8" s="9" t="s">
         <v>379</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>467</v>
-      </c>
-      <c r="F8" s="9">
-        <v>102</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>380</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>381</v>
       </c>
       <c r="I8" s="13">
         <v>540000</v>
@@ -2419,25 +2419,25 @@
         <v>107</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F9" s="9">
         <v>104</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="I9" s="13">
         <v>150000</v>
@@ -2448,25 +2448,25 @@
         <v>108</v>
       </c>
       <c r="B10" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="F10" s="9">
+        <v>102</v>
+      </c>
+      <c r="G10" s="9" t="s">
         <v>460</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>463</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>384</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>466</v>
-      </c>
-      <c r="F10" s="9">
-        <v>102</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>462</v>
-      </c>
       <c r="H10" s="9" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="I10" s="13">
         <v>4000000</v>
@@ -2477,25 +2477,25 @@
         <v>109</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F11" s="9">
         <v>104</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="I11" s="9">
         <v>10000000</v>
@@ -2506,25 +2506,25 @@
         <v>110</v>
       </c>
       <c r="B12" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="F12" s="9">
+        <v>102</v>
+      </c>
+      <c r="G12" s="9" t="s">
         <v>457</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>458</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>387</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>468</v>
-      </c>
-      <c r="F12" s="9">
-        <v>102</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>459</v>
-      </c>
       <c r="H12" s="9" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="I12" s="13">
         <v>300000</v>
@@ -2554,7 +2554,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="21.75" customHeight="1">
       <c r="A1" s="10" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>303</v>
@@ -2565,7 +2565,7 @@
         <v>100</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2573,7 +2573,7 @@
         <v>101</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2581,7 +2581,7 @@
         <v>102</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2589,7 +2589,7 @@
         <v>103</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2626,19 +2626,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="19.5" customHeight="1">
       <c r="A1" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>396</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="D1" s="12" t="s">
         <v>397</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>398</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>399</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2764,10 +2764,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="19.5" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2775,7 +2775,7 @@
         <v>100</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2783,7 +2783,7 @@
         <v>101</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2791,7 +2791,7 @@
         <v>102</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2799,7 +2799,7 @@
         <v>103</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2807,7 +2807,7 @@
         <v>104</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2815,7 +2815,7 @@
         <v>105</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2823,7 +2823,7 @@
         <v>106</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2831,7 +2831,7 @@
         <v>107</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2839,7 +2839,7 @@
         <v>108</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2847,7 +2847,7 @@
         <v>109</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2855,7 +2855,7 @@
         <v>110</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2863,7 +2863,7 @@
         <v>111</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
   </sheetData>
@@ -2891,10 +2891,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="20.25" customHeight="1">
       <c r="A1" s="28" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2903,16 +2903,16 @@
         <v>100</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="8">
-        <f t="shared" ref="A3:A20" si="0">ROW(A3)+98</f>
+        <f t="shared" ref="A3:A10" si="0">ROW(A3)+98</f>
         <v>101</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2921,7 +2921,7 @@
         <v>102</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2930,7 +2930,7 @@
         <v>103</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2939,7 +2939,7 @@
         <v>104</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2948,7 +2948,7 @@
         <v>105</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2957,7 +2957,7 @@
         <v>106</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2966,7 +2966,7 @@
         <v>107</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2975,7 +2975,7 @@
         <v>108</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3421,25 +3421,25 @@
   <sheetData>
     <row r="1" spans="1:14" ht="23.25" customHeight="1">
       <c r="A1" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>402</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>401</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="E1" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="G1" s="14" t="s">
         <v>404</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>402</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>403</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>394</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>405</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -3456,7 +3456,7 @@
         <v>100</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F2" s="8">
         <v>102</v>
@@ -3485,7 +3485,7 @@
         <v>101</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F3" s="8">
         <v>102</v>
@@ -3514,7 +3514,7 @@
         <v>102</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F4" s="8">
         <v>102</v>
@@ -3543,7 +3543,7 @@
         <v>103</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F5" s="8">
         <v>102</v>
@@ -3572,7 +3572,7 @@
         <v>104</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="F6" s="8">
         <v>102</v>
@@ -3601,7 +3601,7 @@
         <v>103</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F7" s="8">
         <v>102</v>
@@ -3630,7 +3630,7 @@
         <v>104</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F8" s="8">
         <v>102</v>
@@ -3659,7 +3659,7 @@
         <v>105</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="F9" s="8">
         <v>102</v>
@@ -3688,7 +3688,7 @@
         <v>101</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="F10" s="8">
         <v>102</v>
@@ -3717,7 +3717,7 @@
         <v>106</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F11" s="8">
         <v>102</v>
@@ -3746,7 +3746,7 @@
         <v>103</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="F12" s="8">
         <v>102</v>
@@ -3775,7 +3775,7 @@
         <v>100</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F13" s="8">
         <v>102</v>
@@ -3804,7 +3804,7 @@
         <v>108</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="F14" s="8">
         <v>102</v>
@@ -3833,7 +3833,7 @@
         <v>106</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F15" s="8">
         <v>102</v>
@@ -3862,7 +3862,7 @@
         <v>103</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="F16" s="8">
         <v>102</v>
@@ -3891,7 +3891,7 @@
         <v>100</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F17" s="8">
         <v>102</v>
@@ -3920,7 +3920,7 @@
         <v>108</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F18" s="8">
         <v>102</v>
@@ -3949,7 +3949,7 @@
         <v>104</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F19" s="8">
         <v>102</v>
@@ -3978,7 +3978,7 @@
         <v>107</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F20" s="8">
         <v>102</v>
@@ -4007,7 +4007,7 @@
         <v>102</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F21" s="8">
         <v>102</v>
@@ -4036,7 +4036,7 @@
         <v>107</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="F22" s="8">
         <v>102</v>
@@ -4065,7 +4065,7 @@
         <v>103</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F23" s="8">
         <v>102</v>
@@ -4094,7 +4094,7 @@
         <v>100</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F24" s="8">
         <v>102</v>
@@ -4123,7 +4123,7 @@
         <v>108</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F25" s="8">
         <v>102</v>
@@ -4152,7 +4152,7 @@
         <v>104</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="F26" s="8">
         <v>102</v>
@@ -4181,7 +4181,7 @@
         <v>101</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F27" s="8">
         <v>102</v>
@@ -4210,7 +4210,7 @@
         <v>100</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="F28" s="8">
         <v>102</v>
@@ -4239,7 +4239,7 @@
         <v>103</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F29" s="8">
         <v>102</v>
@@ -4268,7 +4268,7 @@
         <v>101</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F30" s="8">
         <v>102</v>
@@ -4297,7 +4297,7 @@
         <v>101</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="F31" s="8">
         <v>102</v>
@@ -4326,7 +4326,7 @@
         <v>101</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F32" s="8">
         <v>102</v>
@@ -4355,7 +4355,7 @@
         <v>101</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="F33" s="8">
         <v>102</v>
@@ -4384,7 +4384,7 @@
         <v>101</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F34" s="8">
         <v>102</v>
@@ -4413,7 +4413,7 @@
         <v>101</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="F35" s="8">
         <v>102</v>
@@ -4442,7 +4442,7 @@
         <v>103</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F36" s="8">
         <v>102</v>
@@ -4471,7 +4471,7 @@
         <v>107</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F37" s="8">
         <v>102</v>
@@ -4500,7 +4500,7 @@
         <v>100</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="F38" s="8">
         <v>102</v>
@@ -4529,7 +4529,7 @@
         <v>105</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F39" s="8">
         <v>102</v>
@@ -4558,7 +4558,7 @@
         <v>102</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F40" s="8">
         <v>102</v>
@@ -4587,7 +4587,7 @@
         <v>102</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="F41" s="8">
         <v>102</v>
@@ -4616,7 +4616,7 @@
         <v>102</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F42" s="8">
         <v>102</v>
@@ -4645,7 +4645,7 @@
         <v>102</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="F43" s="8">
         <v>102</v>
@@ -4674,7 +4674,7 @@
         <v>104</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F44" s="8">
         <v>102</v>
@@ -4703,7 +4703,7 @@
         <v>106</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F45" s="8">
         <v>102</v>
@@ -4732,7 +4732,7 @@
         <v>101</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F46" s="8">
         <v>102</v>
@@ -4761,7 +4761,7 @@
         <v>108</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F47" s="8">
         <v>102</v>
@@ -4790,7 +4790,7 @@
         <v>103</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F48" s="8">
         <v>102</v>
@@ -4819,7 +4819,7 @@
         <v>100</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="F49" s="8">
         <v>102</v>
@@ -4848,7 +4848,7 @@
         <v>107</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F50" s="8">
         <v>102</v>
@@ -4877,7 +4877,7 @@
         <v>106</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F51" s="8">
         <v>102</v>
@@ -4906,7 +4906,7 @@
         <v>104</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F52" s="8">
         <v>102</v>
@@ -5105,16 +5105,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="21.75" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>409</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>408</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>411</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -5229,19 +5229,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="21.75" customHeight="1">
       <c r="A1" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>419</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="D1" s="12" t="s">
         <v>420</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>421</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>422</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -5368,31 +5368,31 @@
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" customHeight="1">
       <c r="A1" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>412</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="D1" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>413</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>414</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>408</v>
-      </c>
-      <c r="E1" s="12" t="s">
+      <c r="G1" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>415</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>416</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>409</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>417</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -5558,25 +5558,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" customHeight="1">
       <c r="A1" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>419</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>421</v>
-      </c>
       <c r="C1" s="12" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D1" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="G1" s="12" t="s">
         <v>425</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>428</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>405</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -5724,13 +5724,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="22.5" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -6559,7 +6559,7 @@
         <v>63</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>64</v>
@@ -6697,7 +6697,7 @@
         <v>118</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>119</v>
@@ -6743,7 +6743,7 @@
         <v>89</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>90</v>
@@ -6766,7 +6766,7 @@
         <v>97</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>98</v>
@@ -6812,7 +6812,7 @@
         <v>75</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>76</v>
@@ -6927,7 +6927,7 @@
         <v>144</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>145</v>
@@ -7019,7 +7019,7 @@
         <v>151</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>152</v>
@@ -7088,7 +7088,7 @@
         <v>132</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>130</v>
@@ -7203,7 +7203,7 @@
         <v>4</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>5</v>
@@ -7226,7 +7226,7 @@
         <v>122</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>123</v>
@@ -7295,7 +7295,7 @@
         <v>31</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>32</v>
@@ -7318,7 +7318,7 @@
         <v>71</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>72</v>
@@ -7411,10 +7411,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="21.75" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -7477,16 +7477,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -7533,8 +7533,8 @@
   </sheetPr>
   <dimension ref="A1:C154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="A154" sqref="A2:C154"/>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -7545,13 +7545,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
+        <v>425</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>427</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>429</v>
-      </c>
       <c r="C1" s="12" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -7563,7 +7563,7 @@
       </c>
       <c r="C2" s="8">
         <f ca="1">RANDBETWEEN(1,20)</f>
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -7575,7 +7575,7 @@
       </c>
       <c r="C3" s="8">
         <f t="shared" ref="C3:C66" ca="1" si="0">RANDBETWEEN(1,20)</f>
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -7587,7 +7587,7 @@
       </c>
       <c r="C4" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -7599,7 +7599,7 @@
       </c>
       <c r="C5" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -7611,7 +7611,7 @@
       </c>
       <c r="C6" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -7623,7 +7623,7 @@
       </c>
       <c r="C7" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -7635,7 +7635,7 @@
       </c>
       <c r="C8" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -7647,7 +7647,7 @@
       </c>
       <c r="C9" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -7659,7 +7659,7 @@
       </c>
       <c r="C10" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -7671,7 +7671,7 @@
       </c>
       <c r="C11" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -7683,7 +7683,7 @@
       </c>
       <c r="C12" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -7695,7 +7695,7 @@
       </c>
       <c r="C13" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -7707,7 +7707,7 @@
       </c>
       <c r="C14" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -7719,7 +7719,7 @@
       </c>
       <c r="C15" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -7731,7 +7731,7 @@
       </c>
       <c r="C16" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -7743,7 +7743,7 @@
       </c>
       <c r="C17" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -7755,7 +7755,7 @@
       </c>
       <c r="C18" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -7767,7 +7767,7 @@
       </c>
       <c r="C19" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -7779,7 +7779,7 @@
       </c>
       <c r="C20" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -7791,7 +7791,7 @@
       </c>
       <c r="C21" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -7803,7 +7803,7 @@
       </c>
       <c r="C22" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -7815,7 +7815,7 @@
       </c>
       <c r="C23" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -7827,7 +7827,7 @@
       </c>
       <c r="C24" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -7839,7 +7839,7 @@
       </c>
       <c r="C25" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -7851,7 +7851,7 @@
       </c>
       <c r="C26" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -7863,7 +7863,7 @@
       </c>
       <c r="C27" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -7875,7 +7875,7 @@
       </c>
       <c r="C28" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -7887,7 +7887,7 @@
       </c>
       <c r="C29" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -7899,7 +7899,7 @@
       </c>
       <c r="C30" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -7911,7 +7911,7 @@
       </c>
       <c r="C31" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -7935,7 +7935,7 @@
       </c>
       <c r="C33" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -7947,7 +7947,7 @@
       </c>
       <c r="C34" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -7959,7 +7959,7 @@
       </c>
       <c r="C35" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -7971,7 +7971,7 @@
       </c>
       <c r="C36" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -7983,7 +7983,7 @@
       </c>
       <c r="C37" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -7995,7 +7995,7 @@
       </c>
       <c r="C38" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -8007,7 +8007,7 @@
       </c>
       <c r="C39" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -8019,7 +8019,7 @@
       </c>
       <c r="C40" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -8031,7 +8031,7 @@
       </c>
       <c r="C41" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -8043,7 +8043,7 @@
       </c>
       <c r="C42" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -8055,7 +8055,7 @@
       </c>
       <c r="C43" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -8067,7 +8067,7 @@
       </c>
       <c r="C44" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -8079,7 +8079,7 @@
       </c>
       <c r="C45" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -8091,7 +8091,7 @@
       </c>
       <c r="C46" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -8103,7 +8103,7 @@
       </c>
       <c r="C47" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -8115,7 +8115,7 @@
       </c>
       <c r="C48" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -8127,7 +8127,7 @@
       </c>
       <c r="C49" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -8139,7 +8139,7 @@
       </c>
       <c r="C50" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -8151,7 +8151,7 @@
       </c>
       <c r="C51" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -8163,7 +8163,7 @@
       </c>
       <c r="C52" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -8175,7 +8175,7 @@
       </c>
       <c r="C53" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -8187,7 +8187,7 @@
       </c>
       <c r="C54" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -8199,7 +8199,7 @@
       </c>
       <c r="C55" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -8211,7 +8211,7 @@
       </c>
       <c r="C56" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -8223,7 +8223,7 @@
       </c>
       <c r="C57" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -8235,7 +8235,7 @@
       </c>
       <c r="C58" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -8247,7 +8247,7 @@
       </c>
       <c r="C59" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -8259,7 +8259,7 @@
       </c>
       <c r="C60" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -8271,7 +8271,7 @@
       </c>
       <c r="C61" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -8283,7 +8283,7 @@
       </c>
       <c r="C62" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -8295,7 +8295,7 @@
       </c>
       <c r="C63" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -8307,7 +8307,7 @@
       </c>
       <c r="C64" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -8319,7 +8319,7 @@
       </c>
       <c r="C65" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -8331,7 +8331,7 @@
       </c>
       <c r="C66" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -8343,7 +8343,7 @@
       </c>
       <c r="C67" s="8">
         <f t="shared" ref="C67:C103" ca="1" si="1">RANDBETWEEN(1,20)</f>
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -8367,7 +8367,7 @@
       </c>
       <c r="C69" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -8379,7 +8379,7 @@
       </c>
       <c r="C70" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -8391,7 +8391,7 @@
       </c>
       <c r="C71" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -8415,7 +8415,7 @@
       </c>
       <c r="C73" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -8427,7 +8427,7 @@
       </c>
       <c r="C74" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -8439,7 +8439,7 @@
       </c>
       <c r="C75" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -8451,7 +8451,7 @@
       </c>
       <c r="C76" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -8463,7 +8463,7 @@
       </c>
       <c r="C77" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -8475,7 +8475,7 @@
       </c>
       <c r="C78" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -8487,7 +8487,7 @@
       </c>
       <c r="C79" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -8499,7 +8499,7 @@
       </c>
       <c r="C80" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -8511,7 +8511,7 @@
       </c>
       <c r="C81" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -8523,7 +8523,7 @@
       </c>
       <c r="C82" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -8535,7 +8535,7 @@
       </c>
       <c r="C83" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -8547,7 +8547,7 @@
       </c>
       <c r="C84" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -8559,7 +8559,7 @@
       </c>
       <c r="C85" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -8571,7 +8571,7 @@
       </c>
       <c r="C86" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -8583,7 +8583,7 @@
       </c>
       <c r="C87" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -8595,7 +8595,7 @@
       </c>
       <c r="C88" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -8607,7 +8607,7 @@
       </c>
       <c r="C89" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -8619,7 +8619,7 @@
       </c>
       <c r="C90" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -8631,7 +8631,7 @@
       </c>
       <c r="C91" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -8643,7 +8643,7 @@
       </c>
       <c r="C92" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -8655,7 +8655,7 @@
       </c>
       <c r="C93" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -8667,7 +8667,7 @@
       </c>
       <c r="C94" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -8679,7 +8679,7 @@
       </c>
       <c r="C95" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -8691,7 +8691,7 @@
       </c>
       <c r="C96" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -8703,7 +8703,7 @@
       </c>
       <c r="C97" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -8715,7 +8715,7 @@
       </c>
       <c r="C98" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -8727,7 +8727,7 @@
       </c>
       <c r="C99" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -8739,7 +8739,7 @@
       </c>
       <c r="C100" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -8751,7 +8751,7 @@
       </c>
       <c r="C101" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -8763,7 +8763,7 @@
       </c>
       <c r="C102" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>19</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -8787,7 +8787,7 @@
       </c>
       <c r="C104" s="8">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>75</v>
+        <v>10</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -8799,7 +8799,7 @@
       </c>
       <c r="C105" s="8">
         <f t="shared" ref="C105:C154" ca="1" si="2">RANDBETWEEN(1,100)</f>
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -8823,7 +8823,7 @@
       </c>
       <c r="C107" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>35</v>
+        <v>80</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -8835,7 +8835,7 @@
       </c>
       <c r="C108" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>30</v>
+        <v>99</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -8847,7 +8847,7 @@
       </c>
       <c r="C109" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>44</v>
+        <v>19</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -8859,7 +8859,7 @@
       </c>
       <c r="C110" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>78</v>
+        <v>46</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -8871,7 +8871,7 @@
       </c>
       <c r="C111" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>83</v>
+        <v>22</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -8883,7 +8883,7 @@
       </c>
       <c r="C112" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -8895,7 +8895,7 @@
       </c>
       <c r="C113" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -8907,7 +8907,7 @@
       </c>
       <c r="C114" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -8919,7 +8919,7 @@
       </c>
       <c r="C115" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -8943,7 +8943,7 @@
       </c>
       <c r="C117" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -8955,7 +8955,7 @@
       </c>
       <c r="C118" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>91</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -8967,7 +8967,7 @@
       </c>
       <c r="C119" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>68</v>
+        <v>78</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -8979,7 +8979,7 @@
       </c>
       <c r="C120" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -8991,7 +8991,7 @@
       </c>
       <c r="C121" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>81</v>
+        <v>40</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -9003,7 +9003,7 @@
       </c>
       <c r="C122" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>54</v>
+        <v>8</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -9015,7 +9015,7 @@
       </c>
       <c r="C123" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -9027,7 +9027,7 @@
       </c>
       <c r="C124" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -9039,7 +9039,7 @@
       </c>
       <c r="C125" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>71</v>
+        <v>29</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -9051,7 +9051,7 @@
       </c>
       <c r="C126" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -9063,7 +9063,7 @@
       </c>
       <c r="C127" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -9075,7 +9075,7 @@
       </c>
       <c r="C128" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>30</v>
+        <v>57</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -9087,7 +9087,7 @@
       </c>
       <c r="C129" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>73</v>
+        <v>41</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -9111,7 +9111,7 @@
       </c>
       <c r="C131" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>40</v>
+        <v>93</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -9123,7 +9123,7 @@
       </c>
       <c r="C132" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -9135,7 +9135,7 @@
       </c>
       <c r="C133" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>51</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -9147,7 +9147,7 @@
       </c>
       <c r="C134" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>37</v>
+        <v>90</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -9159,7 +9159,7 @@
       </c>
       <c r="C135" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>96</v>
+        <v>62</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -9171,7 +9171,7 @@
       </c>
       <c r="C136" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>40</v>
+        <v>17</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -9183,7 +9183,7 @@
       </c>
       <c r="C137" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>52</v>
+        <v>92</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -9195,7 +9195,7 @@
       </c>
       <c r="C138" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>85</v>
+        <v>12</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -9207,7 +9207,7 @@
       </c>
       <c r="C139" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -9219,7 +9219,7 @@
       </c>
       <c r="C140" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>41</v>
+        <v>71</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -9231,7 +9231,7 @@
       </c>
       <c r="C141" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>59</v>
+        <v>25</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -9255,7 +9255,7 @@
       </c>
       <c r="C143" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -9267,7 +9267,7 @@
       </c>
       <c r="C144" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <v>82</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -9279,7 +9279,7 @@
       </c>
       <c r="C145" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>98</v>
+        <v>60</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -9291,7 +9291,7 @@
       </c>
       <c r="C146" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>87</v>
+        <v>13</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -9303,7 +9303,7 @@
       </c>
       <c r="C147" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>33</v>
+        <v>95</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -9315,7 +9315,7 @@
       </c>
       <c r="C148" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>37</v>
+        <v>80</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -9327,7 +9327,7 @@
       </c>
       <c r="C149" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>91</v>
+        <v>52</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -9339,7 +9339,7 @@
       </c>
       <c r="C150" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -9351,7 +9351,7 @@
       </c>
       <c r="C151" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>39</v>
+        <v>5</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -9363,7 +9363,7 @@
       </c>
       <c r="C152" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>69</v>
+        <v>99</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -9375,7 +9375,7 @@
       </c>
       <c r="C153" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>51</v>
+        <v>13</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -9387,7 +9387,7 @@
       </c>
       <c r="C154" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>76</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -9429,25 +9429,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="22.5" customHeight="1">
       <c r="A1" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>419</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>421</v>
-      </c>
       <c r="C1" s="12" t="s">
+        <v>422</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>424</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="F1" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="G1" s="12" t="s">
         <v>425</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>426</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>405</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -9597,16 +9597,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="21" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>408</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>435</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -9696,19 +9696,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="21.75" customHeight="1">
       <c r="A1" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>419</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>430</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>421</v>
-      </c>
       <c r="D1" s="12" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -10651,11 +10651,14 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="45.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="21.75" customHeight="1">
       <c r="A1" s="10" t="s">
@@ -10670,7 +10673,7 @@
         <v>100</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -10678,7 +10681,7 @@
         <v>101</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>348</v>
+        <v>551</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -10686,7 +10689,7 @@
         <v>102</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>349</v>
+        <v>552</v>
       </c>
     </row>
   </sheetData>
